--- a/trunk/frontend_source/accor/src/accorfile/AccorHotels Wechat Mall List.xlsx
+++ b/trunk/frontend_source/accor/src/accorfile/AccorHotels Wechat Mall List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="8820" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="8820" tabRatio="287" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="367">
   <si>
     <t>长白山万达宜必思尚品酒店</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -579,452 +579,876 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ych_fem.jpg</t>
+  </si>
+  <si>
+    <t>hk_nft.jpg</t>
+  </si>
+  <si>
+    <t>nj_nft.jpg</t>
+  </si>
+  <si>
+    <t>nb_nft.jpg</t>
+  </si>
+  <si>
+    <t>sz_nft.jpg</t>
+  </si>
+  <si>
+    <t>wh_nft.jpg</t>
+  </si>
+  <si>
+    <t>gz_bem.jpg</t>
+  </si>
+  <si>
+    <t>sh_bem.jpg</t>
+  </si>
+  <si>
+    <t>shzx_bem.jpg</t>
+  </si>
+  <si>
+    <t>hz_sft.jpg</t>
+  </si>
+  <si>
+    <t>nb_sft.jpg</t>
+  </si>
+  <si>
+    <t>xian_sft.jpg</t>
+  </si>
+  <si>
+    <t>ty_bem.jpg</t>
+  </si>
+  <si>
+    <t>hn_llfs.jpg</t>
+  </si>
+  <si>
+    <t>bj_rs.jpg</t>
+  </si>
+  <si>
+    <t>fs_rs.jpg</t>
+  </si>
+  <si>
+    <t>sh_rs.jpg</t>
+  </si>
+  <si>
+    <t>ks_rs.jpg</t>
+  </si>
+  <si>
+    <t>place</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳澄湖度假区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旺角/油麻地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新街口地区（市中心）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东部新城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华强北商业区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉口商业金融区/汉口火车站地区（园博园）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新白云国际机场附近</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海火车站地区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海火车南站地区</t>
+  </si>
+  <si>
+    <t>富力广场/富力中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清水湾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西湖湖滨商圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新城广场省政府（城中心）/钟鼓楼回民街（城中心）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄武湖湖南路地区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家会展中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄞州万达广场商业区/鄞州商业区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫荆山、曼哈顿商业区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东直门、工体、雍和宫地区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祖庙商圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静安寺地区</t>
+  </si>
+  <si>
+    <t>市中心地区</t>
+  </si>
+  <si>
+    <t>bj_ws.jpg</t>
+  </si>
+  <si>
+    <t>北京万商花园酒店</t>
+  </si>
+  <si>
+    <t>北京</t>
+  </si>
+  <si>
+    <t>美居</t>
+  </si>
+  <si>
+    <t>http://1.025op.com/index.php/soma/package/index/?id=a502245149&amp;tkid=396&amp;catid=</t>
+  </si>
+  <si>
+    <t>公主坟/五棵松/石景山游乐园地区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cityname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shanghai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guangzhou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beijing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nanjing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kunshan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ningbo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shenzhen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wuhan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taiyuan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sanya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hangzhou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhenzhou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foshan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fairmont</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>des</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费尔蒙酒店及度假村（Fairmont HOTELS &amp; RESORTS）是雅高酒店集团下的高端奢华酒店，被誉为“世界上最有故事”的酒店品牌之一。在全球的23个国家拥有76家酒店，共计30,254间客房，每一家的平均体量为250至200间。其中不乏具有历史性、标志的品牌酒店已经成为其所在目的地发展中不可或缺的部分，对城市的历史进程产生了重要影响。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美居（Mercure）是雅高旗下领先的中端酒店品牌。拥有强大的酒店网络，遍及55个国家，超过740家酒店。酒店位置多元化，城市中心，度假区，山区，都有美居品牌的纯正服务，提供蕴含本地特色的愉悦体验，由充满热情的酒店员工与美居的全球高水平质量承诺带来保证。 美居拥有标准化的服务质量，同时也保持每一家酒店的当地特色，由此提供多元化的体验。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美爵（Grand Mercure）是雅高旗下的区域性高端酒店，在全球范围内拥有41家酒店，其中亚太地区多达36家，共7094间客房。展现本土文化，注重当地情怀，美爵极大程度的还原当地风俗，满足同时追求地道本地体验和国际化专业服务的现代旅客，带来不一样的度假体验。在美爵，无论酒店内外都能够让你身临其境，体验地道的本地风情。“发现未知，开拓视野，回归自我，感悟人生”，深度城市之旅，美爵为你打造。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺富特致力于为各位旅客带来多功能的服务和人性化的体验。开放式的酒店大堂设计，餐饮区、会晤区、休闲区和欢迎区巧妙衔接，流畅过渡、功能多样。时尚的客房设计，套房还配备齐全的厨卫和家用电器，让旅客真正体验宾至如归的感觉。同时， 诺富特配备的健身中心和水疗中心，舒适的享受让旅客忘记旅途的劳顿。“还是诺富特更称心”这不仅是诺富特的广告语，更是广大旅客最真实的住宿体验。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莱佛士（Raffles Hotel）是雅高酒店集团下的高端酒店品牌，全球拥有11家酒店，1，999间客房。酒店充满历史传承与人文特色，创造与当地文化相结合的独特体验，致力于给每一位客人宾至如归的关怀与感受。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>banner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fairmont.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mercure.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mercure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grand mercure.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>novotel.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pullman.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>raffles.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sofitel.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swissotel.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fairmont_banner.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>raffles_banner.jpg</t>
+  </si>
+  <si>
+    <t>sofitel_banner.jpg</t>
+  </si>
+  <si>
+    <t>mercure_banner.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grandmercure_banner.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>novotel_banner.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pullman_banner.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swissotel_banner.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brandname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铂尔曼（Pullman）是雅高酒店集团下的高端酒店品牌，全球网络遍及31个国家，拥有超过117家酒店和度假酒店，在大中华区的26个城市拥有30家酒店，共10,074间客房。时尚、国际大都市风范，铂尔曼致力于为当今商务旅行者提供高效周到的服务。作为业内领先品牌，铂尔曼预见新一代的高端入住体验，独具一格引领时代前沿。在铂尔曼，商务变得有趣，联络变得便捷而轻松。正如品牌宣言所述，“在铂尔曼，我们的世界就是您的游乐场”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铂尔曼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞士酒店及度假村是雅高集团旗下的高端酒店品牌， 目前在全球16个国家拥有33家酒店，共计11,634间客房。在大中华地区的4座城市，拥有4家酒店，1549间客房。酒店在时尚的瑞士风格中融入当地风情，不仅满足了众多喜欢高端住宿体验的出行者，又迎合了渴望全新感受的商务及休闲旅客。每一座瑞士酒店都座落在世界各地的市中心，地理位置尤其便利，让客人们可轻松拜访周边的商务和购物区。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>novotel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pullman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pullman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>raffles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>raffles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sofitel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brandname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ych.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shzx.jpg</t>
+  </si>
+  <si>
+    <t>hkjl.jpg</t>
+  </si>
+  <si>
+    <t>njxjk.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nbyd.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>szwd.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whxh.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gzby.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shja.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tyfl.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hnyj.jpg</t>
+  </si>
+  <si>
+    <t>hz.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xa.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bjga.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fsha.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shha.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ks.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bjws.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hotelbanner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nj_sft.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tkid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grand_mercure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swissotel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swissotel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索菲特（Sofitel）是雅高酒店集团下的高端酒店品牌，全球遍及41个国家，拥有超过120家酒店，共30,318间客房。 索菲特提供现代化的酒店和度假村，适合如今对美、品质和卓越有所期望和欣赏，且需求更高更多样的顾客。无论是坐落于巴黎、伦敦、纽约或北京等大城市中心，还是位处摩洛哥、埃及、斐济岛或泰国的乡村之中，每家索菲特酒店都能让您享受到原汁原味的法式生活艺术。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成都</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索菲特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://hotels.iwide.cn/index.php/soma/package/index?id=a487059597</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天府广场/盐市口商业区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chengdu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sofitel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铂尔曼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丽江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd_sft.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://assist.iwide.cn/index.php/soma/package/index?id=a503456964</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丽江铂尔曼度假酒店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lj_bem.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>束河古镇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lijiang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pullman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成都泰合索菲特大饭店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://assist.iwide.cn/index.php/soma/package/index/?id=a504070490</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nc_bem.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高铁西客站（万达旅游城，省政府）商圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nanchang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://assist.iwide.cn/index.php/soma/package/index?id=a503490715</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京索菲特钟山高尔夫酒店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://1.redou6.com/index.php/soma/package/index?id=a499046681</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山陵地区/徐庄软件园-仙林大学城商圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sofitel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nj_sft_golf.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nanjing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京玄武苏宁诺富特酒店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺富特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺富特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://1.025op.com/index.php/soma/package/index?id=a500971898</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐庄软件园-仙林大学城商圈/中山陵地区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nanjing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>novotel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>novotel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>njxw_nft.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://assist.iwide.cn/index.php/soma/package/index?id=a504707344</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厦门宝龙铂尔曼大酒店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白鹭洲/厦鼓码头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厦门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://hotels.fhkj100.com/index.php/soma/package/index?id=a481797687</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiamen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xm_bem.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://assist.iwide.cn/index.php/soma/package/index?id=a503648131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>sh_heping.jpg</t>
-  </si>
-  <si>
-    <t>ych_fem.jpg</t>
-  </si>
-  <si>
-    <t>hk_nft.jpg</t>
-  </si>
-  <si>
-    <t>nj_nft.jpg</t>
-  </si>
-  <si>
-    <t>nb_nft.jpg</t>
-  </si>
-  <si>
-    <t>sz_nft.jpg</t>
-  </si>
-  <si>
-    <t>wh_nft.jpg</t>
-  </si>
-  <si>
-    <t>gz_bem.jpg</t>
-  </si>
-  <si>
-    <t>ncbem.jpg</t>
-  </si>
-  <si>
-    <t>sh_bem.jpg</t>
-  </si>
-  <si>
-    <t>shzx_bem.jpg</t>
-  </si>
-  <si>
-    <t>hz_sft.jpg</t>
-  </si>
-  <si>
-    <t>nb_sft.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外滩地区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海虹桥雅高美爵酒店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美爵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://hotels.liyewl.com/index.php/soma/package/index?id=a472114616</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虹桥地区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shhq_mjue.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shanghai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grand_mercure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海索菲特海仑宾馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://assist.iwide.cn/index.php/soma/package/index?id=a503990583</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh_sft_hl.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人民广场地区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shanghai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://assist.iwide.cn/index.php/soma/package/index?id=a503976587</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shxhl_sft.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳东方银座美爵酒店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://hotels.tyxbf.com/index.php/soma/package/index/?id=a495087910</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香蜜湖/车公庙/会展中心/CBD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shenzhen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sz_meijue.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张家界京武铂尔曼酒店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张家界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铂尔曼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://assist.iwide.cn/index.php/soma/package/index?id=a502797520</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武陵源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhangjiajie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pullman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://assist.iwide.cn/index.php/soma/package/index?id=a502715942</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑州新田美爵酒店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美爵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞林湖度假区/高铁西站/市政府区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhenzhou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://assist.iwide.cn/index.php/soma/package/index?id=a501579967</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zzxt_meijue.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zjj_bem.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zz_sft.jpg</t>
-  </si>
-  <si>
-    <t>shxhl_sft.jpg</t>
-  </si>
-  <si>
-    <t>xian_sft.jpg</t>
-  </si>
-  <si>
-    <t>ty_bem.jpg</t>
-  </si>
-  <si>
-    <t>hn_llfs.jpg</t>
-  </si>
-  <si>
-    <t>lj_bem.JPG</t>
-  </si>
-  <si>
-    <t>bj_rs.jpg</t>
-  </si>
-  <si>
-    <t>fs_rs.jpg</t>
-  </si>
-  <si>
-    <t>sh_rs.jpg</t>
-  </si>
-  <si>
-    <t>ks_rs.jpg</t>
-  </si>
-  <si>
-    <t>place</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外滩地区/人民广场地区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳澄湖度假区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旺角/油麻地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新街口地区（市中心）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东部新城</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华强北商业区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉口商业金融区/汉口火车站地区（园博园）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新白云国际机场附近</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高铁西客站（万达旅游城，省政府）商圈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海火车站地区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海火车南站地区</t>
-  </si>
-  <si>
-    <t>富力广场/富力中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>束河古镇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清水湾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西湖湖滨商圈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新城广场省政府（城中心）/钟鼓楼回民街（城中心）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玄武湖湖南路地区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国家会展中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鄞州万达广场商业区/鄞州商业区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫荆山、曼哈顿商业区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东直门、工体、雍和宫地区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祖庙商圈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>静安寺地区</t>
-  </si>
-  <si>
-    <t>市中心地区</t>
-  </si>
-  <si>
-    <t>bj_ws.jpg</t>
-  </si>
-  <si>
-    <t>北京万商花园酒店</t>
-  </si>
-  <si>
-    <t>北京</t>
-  </si>
-  <si>
-    <t>美居</t>
-  </si>
-  <si>
-    <t>http://1.025op.com/index.php/soma/package/index/?id=a502245149&amp;tkid=396&amp;catid=</t>
-  </si>
-  <si>
-    <t>公主坟/五棵松/石景山游乐园地区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cityname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shanghai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guangzhou</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>beijing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nanjing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kunshan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ningbo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shenzhen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wuhan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nanchang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>taiyuan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lijiang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sanya</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hangzhou</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhenzhou</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foshan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shanghai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fairmont</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>des</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费尔蒙酒店及度假村（Fairmont HOTELS &amp; RESORTS）是雅高酒店集团下的高端奢华酒店，被誉为“世界上最有故事”的酒店品牌之一。在全球的23个国家拥有76家酒店，共计30,254间客房，每一家的平均体量为250至200间。其中不乏具有历史性、标志的品牌酒店已经成为其所在目的地发展中不可或缺的部分，对城市的历史进程产生了重要影响。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美居（Mercure）是雅高旗下领先的中端酒店品牌。拥有强大的酒店网络，遍及55个国家，超过740家酒店。酒店位置多元化，城市中心，度假区，山区，都有美居品牌的纯正服务，提供蕴含本地特色的愉悦体验，由充满热情的酒店员工与美居的全球高水平质量承诺带来保证。 美居拥有标准化的服务质量，同时也保持每一家酒店的当地特色，由此提供多元化的体验。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美爵（Grand Mercure）是雅高旗下的区域性高端酒店，在全球范围内拥有41家酒店，其中亚太地区多达36家，共7094间客房。展现本土文化，注重当地情怀，美爵极大程度的还原当地风俗，满足同时追求地道本地体验和国际化专业服务的现代旅客，带来不一样的度假体验。在美爵，无论酒店内外都能够让你身临其境，体验地道的本地风情。“发现未知，开拓视野，回归自我，感悟人生”，深度城市之旅，美爵为你打造。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诺富特致力于为各位旅客带来多功能的服务和人性化的体验。开放式的酒店大堂设计，餐饮区、会晤区、休闲区和欢迎区巧妙衔接，流畅过渡、功能多样。时尚的客房设计，套房还配备齐全的厨卫和家用电器，让旅客真正体验宾至如归的感觉。同时， 诺富特配备的健身中心和水疗中心，舒适的享受让旅客忘记旅途的劳顿。“还是诺富特更称心”这不仅是诺富特的广告语，更是广大旅客最真实的住宿体验。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>莱佛士（Raffles Hotel）是雅高酒店集团下的高端酒店品牌，全球拥有11家酒店，1，999间客房。酒店充满历史传承与人文特色，创造与当地文化相结合的独特体验，致力于给每一位客人宾至如归的关怀与感受。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>banner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fairmont.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mercure.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mercure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>grand mercure.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>novotel.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pullman.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>raffles.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sofitel.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>swissotel.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fairmont_banner.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>raffles_banner.jpg</t>
-  </si>
-  <si>
-    <t>sofitel_banner.jpg</t>
-  </si>
-  <si>
-    <t>mercure_banner.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>grandmercure_banner.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>novotel_banner.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pullman_banner.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>swissotel_banner.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brandname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铂尔曼（Pullman）是雅高酒店集团下的高端酒店品牌，全球网络遍及31个国家，拥有超过117家酒店和度假酒店，在大中华区的26个城市拥有30家酒店，共10,074间客房。时尚、国际大都市风范，铂尔曼致力于为当今商务旅行者提供高效周到的服务。作为业内领先品牌，铂尔曼预见新一代的高端入住体验，独具一格引领时代前沿。在铂尔曼，商务变得有趣，联络变得便捷而轻松。正如品牌宣言所述，“在铂尔曼，我们的世界就是您的游乐场”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铂尔曼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>索菲特（Sofitel）是雅高酒店集团下的高端酒店品牌，全球遍及41个城市，拥有超过120家酒店，共30,318间客房。 索菲特提供现代化的酒店和度假村，适合如今对美、品质和卓越有所期望和欣赏，且需求更高更多样的顾客。无论是坐落于巴黎、伦敦、纽约或北京等大城市中心，还是位处摩洛哥、埃及、斐济岛或泰国的乡村之中，每家索菲特酒店都能让您享受到原汁原味的法式生活艺术。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瑞士酒店及度假村是雅高集团旗下的高端酒店品牌， 目前在全球16个国家拥有33家酒店，共计11,634间客房。在大中华地区的4座城市，拥有4家酒店，1549间客房。酒店在时尚的瑞士风格中融入当地风情，不仅满足了众多喜欢高端住宿体验的出行者，又迎合了渴望全新感受的商务及休闲旅客。每一座瑞士酒店都座落在世界各地的市中心，地理位置尤其便利，让客人们可轻松拜访周边的商务和购物区。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>novotel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pullman</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pullman</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>raffles</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>raffles</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sofitel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brandname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ych.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shzx.jpg</t>
-  </si>
-  <si>
-    <t>hkjl.jpg</t>
-  </si>
-  <si>
-    <t>njxjk.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nbyd.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>szwd.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>whxh.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gzby.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cdthsft.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljbem.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>njsftyh.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>njsftgolf.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>njxwnft.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xmblbem.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shhqmj.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shsfthl.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>szdfyz.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zjjbem.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zzxtmj.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shxhlsft.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nbwdsft.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shhp.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1032,86 +1456,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>shja.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tyfl.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lj.JPG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hnyj.jpg</t>
-  </si>
-  <si>
-    <t>hz.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xa.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shxhl.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nbwd.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zz.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bjga.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fsha.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shha.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ks.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bjws.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hotelbanner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>njsn.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nj_sft.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tkid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>grand_mercure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>swissotel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>swissotel</t>
+    <t>zzsftgj.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1172,7 +1517,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1235,12 +1580,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1269,6 +1623,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1550,7 +1920,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="438" row="1">
+  <wetp:taskpane dockstate="right" visibility="0" width="438" row="0">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -1572,8 +1942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2171,7 +2541,7 @@
         <v>93</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>52</v>
+        <v>263</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>25</v>
@@ -2526,10 +2896,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2538,8 +2908,8 @@
     <col min="2" max="2" width="9.33203125" customWidth="1"/>
     <col min="3" max="4" width="9.21875" customWidth="1"/>
     <col min="5" max="5" width="98.77734375" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" customWidth="1"/>
-    <col min="7" max="7" width="22.109375" customWidth="1"/>
+    <col min="6" max="6" width="20.77734375" customWidth="1"/>
+    <col min="7" max="7" width="37.5546875" customWidth="1"/>
     <col min="8" max="8" width="11.88671875" customWidth="1"/>
     <col min="9" max="9" width="12.5546875" customWidth="1"/>
   </cols>
@@ -2555,7 +2925,7 @@
         <v>136</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>137</v>
@@ -2564,48 +2934,46 @@
         <v>138</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="2">
-        <v>371</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G2" t="s">
-        <v>163</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="I2" t="s">
-        <v>213</v>
-      </c>
-      <c r="J2" t="s">
-        <v>251</v>
+      <c r="D2" s="3"/>
+      <c r="E2" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -2625,19 +2993,19 @@
         <v>103</v>
       </c>
       <c r="F3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -2657,19 +3025,19 @@
         <v>104</v>
       </c>
       <c r="F4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="J4" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -2689,19 +3057,19 @@
         <v>105</v>
       </c>
       <c r="F5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -2721,19 +3089,19 @@
         <v>106</v>
       </c>
       <c r="F6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>244</v>
+        <v>300</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -2744,7 +3112,7 @@
         <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>295</v>
       </c>
       <c r="D7" s="2">
         <v>376</v>
@@ -2753,19 +3121,19 @@
         <v>107</v>
       </c>
       <c r="F7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="I7" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -2785,19 +3153,19 @@
         <v>108</v>
       </c>
       <c r="F8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -2817,51 +3185,49 @@
         <v>109</v>
       </c>
       <c r="F9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="I9" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="J9" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    </row>
+    <row r="10" spans="1:10" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="2">
-        <v>379</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F10" t="s">
-        <v>147</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>260</v>
+      <c r="D10" s="3"/>
+      <c r="E10" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -2881,19 +3247,19 @@
         <v>111</v>
       </c>
       <c r="F11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -2913,19 +3279,19 @@
         <v>112</v>
       </c>
       <c r="F12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G12" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="J12" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2945,467 +3311,726 @@
         <v>127</v>
       </c>
       <c r="F13" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G13" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="J14" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="F15" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="J15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F16" t="s">
         <v>150</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="2">
-        <v>383</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F17" t="s">
-        <v>154</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="D17" s="3"/>
+      <c r="E17" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="2">
-        <v>384</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F18" t="s">
-        <v>277</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="D18" s="3"/>
+      <c r="E18" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="2">
-        <v>385</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F19" t="s">
-        <v>153</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="D19" s="3"/>
+      <c r="E19" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="2">
-        <v>386</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F20" t="s">
-        <v>151</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>268</v>
+      <c r="D20" s="3"/>
+      <c r="E20" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" s="2">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>249</v>
+        <v>188</v>
+      </c>
+      <c r="I21" t="s">
+        <v>262</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D22" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F22" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="I22" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D23" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F23" t="s">
-        <v>159</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>184</v>
+        <v>155</v>
+      </c>
+      <c r="G23" t="s">
+        <v>177</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="I23" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D24" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F24" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G24" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="I24" t="s">
+        <v>261</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>180</v>
+      </c>
+      <c r="B25" t="s">
+        <v>181</v>
+      </c>
+      <c r="C25" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25" s="2">
+        <v>396</v>
+      </c>
+      <c r="E25" t="s">
+        <v>183</v>
+      </c>
+      <c r="F25" t="s">
+        <v>179</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I25" t="s">
+        <v>213</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="B26" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="2">
-        <v>395</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F25" t="s">
-        <v>161</v>
-      </c>
-      <c r="G25" t="s">
-        <v>186</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="I25" t="s">
-        <v>280</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>188</v>
-      </c>
-      <c r="B26" t="s">
-        <v>189</v>
-      </c>
-      <c r="C26" t="s">
-        <v>190</v>
-      </c>
-      <c r="D26" s="2">
-        <v>396</v>
-      </c>
-      <c r="E26" t="s">
-        <v>191</v>
-      </c>
-      <c r="F26" t="s">
-        <v>187</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="I26" t="s">
-        <v>224</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="C27" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="E27" s="14" t="s">
         <v>274</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>361</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E25" r:id="rId1"/>
-    <hyperlink ref="E24" r:id="rId2"/>
-    <hyperlink ref="E23" r:id="rId3"/>
-    <hyperlink ref="E22" r:id="rId4"/>
-    <hyperlink ref="E15" r:id="rId5"/>
-    <hyperlink ref="E14" r:id="rId6"/>
-    <hyperlink ref="E13" r:id="rId7"/>
-    <hyperlink ref="E21" r:id="rId8"/>
-    <hyperlink ref="E20" r:id="rId9"/>
-    <hyperlink ref="E19" r:id="rId10"/>
-    <hyperlink ref="E18" r:id="rId11"/>
-    <hyperlink ref="E17" r:id="rId12"/>
-    <hyperlink ref="E16" r:id="rId13"/>
-    <hyperlink ref="E12" r:id="rId14"/>
-    <hyperlink ref="E11" r:id="rId15"/>
-    <hyperlink ref="E10" r:id="rId16"/>
-    <hyperlink ref="E9" r:id="rId17"/>
-    <hyperlink ref="E8" r:id="rId18"/>
-    <hyperlink ref="E7" r:id="rId19"/>
-    <hyperlink ref="E6" r:id="rId20"/>
-    <hyperlink ref="E5" r:id="rId21"/>
-    <hyperlink ref="E4" r:id="rId22"/>
-    <hyperlink ref="E3" r:id="rId23"/>
-    <hyperlink ref="E2" r:id="rId24"/>
+    <hyperlink ref="E24" r:id="rId1"/>
+    <hyperlink ref="E23" r:id="rId2"/>
+    <hyperlink ref="E22" r:id="rId3"/>
+    <hyperlink ref="E21" r:id="rId4"/>
+    <hyperlink ref="E14" r:id="rId5"/>
+    <hyperlink ref="E13" r:id="rId6"/>
+    <hyperlink ref="E20" r:id="rId7"/>
+    <hyperlink ref="E19" r:id="rId8"/>
+    <hyperlink ref="E18" r:id="rId9"/>
+    <hyperlink ref="E17" r:id="rId10"/>
+    <hyperlink ref="E16" r:id="rId11"/>
+    <hyperlink ref="E15" r:id="rId12"/>
+    <hyperlink ref="E12" r:id="rId13"/>
+    <hyperlink ref="E11" r:id="rId14"/>
+    <hyperlink ref="E10" r:id="rId15"/>
+    <hyperlink ref="E9" r:id="rId16"/>
+    <hyperlink ref="E8" r:id="rId17"/>
+    <hyperlink ref="E7" r:id="rId18"/>
+    <hyperlink ref="E6" r:id="rId19"/>
+    <hyperlink ref="E5" r:id="rId20"/>
+    <hyperlink ref="E4" r:id="rId21"/>
+    <hyperlink ref="E3" r:id="rId22"/>
+    <hyperlink ref="E2" r:id="rId23"/>
+    <hyperlink ref="E26" r:id="rId24"/>
+    <hyperlink ref="E27" r:id="rId25"/>
+    <hyperlink ref="E28" r:id="rId26"/>
+    <hyperlink ref="E29" r:id="rId27"/>
+    <hyperlink ref="E30" r:id="rId28"/>
+    <hyperlink ref="E31" r:id="rId29"/>
+    <hyperlink ref="E32" r:id="rId30"/>
+    <hyperlink ref="E33" r:id="rId31"/>
+    <hyperlink ref="E34" r:id="rId32"/>
+    <hyperlink ref="E35" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
 </worksheet>
 </file>
 
@@ -3414,13 +4039,13 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.77734375" customWidth="1"/>
-    <col min="2" max="2" width="62.44140625" customWidth="1"/>
+    <col min="2" max="2" width="111" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
     <col min="4" max="4" width="26.33203125" customWidth="1"/>
     <col min="5" max="5" width="12.88671875" customWidth="1"/>
@@ -3428,33 +4053,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="B1" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C1" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="D1" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="E1" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C2" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="D2" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
@@ -3462,16 +4087,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="B3" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="C3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" t="s">
         <v>223</v>
-      </c>
-      <c r="D3" t="s">
-        <v>234</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>
@@ -3479,16 +4104,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="B4" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C4" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="D4" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
@@ -3496,16 +4121,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="B5" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C5" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D5" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="E5" t="s">
         <v>23</v>
@@ -3513,33 +4138,33 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B6" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C6" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="D6" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="E6" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="B7" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="C7" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D7" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
@@ -3547,16 +4172,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B8" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="C8" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="D8" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="E8" t="s">
         <v>25</v>
@@ -3564,16 +4189,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="B9" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C9" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="D9" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="E9" t="s">
         <v>26</v>
